--- a/mes-modules/produce/src/main/resources/excel/heatTreatmentReport.xlsx
+++ b/mes-modules/produce/src/main/resources/excel/heatTreatmentReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16675\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F090EF58-35FF-439D-8BB3-F314A99C2C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73B7447-A845-4BAD-9976-E6EE977EB4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{BC25549C-95B6-48D1-8B3C-9897C4243E0C}"/>
   </bookViews>
@@ -1006,7 +1006,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1125,37 +1125,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1163,68 +1132,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1242,18 +1149,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1272,9 +1170,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1406,197 +1302,95 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2120,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2142,222 +1936,222 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="61" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="21" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="15"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="21" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="15"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="49"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="23" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="25" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="30" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="41"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="8" t="s">
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="23" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2365,179 +2159,201 @@
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="6" t="s">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="25" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="22"/>
+      <c r="F17" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="9"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="23.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="11"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="23.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="11"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="11"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="11"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="23" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23" t="s">
+      <c r="H23" s="21"/>
+      <c r="I23" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="24"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="25" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="25" t="s">
+      <c r="H24" s="22"/>
+      <c r="I24" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="26"/>
+      <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10" ht="29.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="45" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="52" t="s">
+      <c r="H25" s="9"/>
+      <c r="I25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="53"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H11:J12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C13:J14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H9:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
@@ -2554,36 +2370,14 @@
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C13:J14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H9:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H11:J12"/>
     <mergeCell ref="H7:J8"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>

--- a/mes-modules/produce/src/main/resources/excel/heatTreatmentReport.xlsx
+++ b/mes-modules/produce/src/main/resources/excel/heatTreatmentReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16675\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16675\IdeaProjects\mes-backend\mes-modules\produce\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73B7447-A845-4BAD-9976-E6EE977EB4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C70C60-99C4-4DBB-BE46-78F41EF56187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{BC25549C-95B6-48D1-8B3C-9897C4243E0C}"/>
   </bookViews>
@@ -1327,71 +1327,71 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="C13" sqref="C13:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1936,222 +1936,222 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="17" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="18" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="18" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="21" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="22" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="27" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="23" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2159,153 +2159,153 @@
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="26" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="22" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="28" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="23.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="23.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="21" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21" t="s">
+      <c r="H23" s="17"/>
+      <c r="I23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="22" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22" t="s">
+      <c r="H24" s="23"/>
+      <c r="I24" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="22"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10" ht="29.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="9" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10" t="s">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="10"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
@@ -2324,36 +2324,20 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C13:J14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H9:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H11:J12"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
@@ -2370,20 +2354,36 @@
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H11:J12"/>
-    <mergeCell ref="H7:J8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C13:J14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H9:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/mes-modules/produce/src/main/resources/excel/heatTreatmentReport.xlsx
+++ b/mes-modules/produce/src/main/resources/excel/heatTreatmentReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16675\IdeaProjects\mes-backend\mes-modules\produce\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C70C60-99C4-4DBB-BE46-78F41EF56187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B91D6B-3390-45E1-AC08-C475EE84F839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{BC25549C-95B6-48D1-8B3C-9897C4243E0C}"/>
   </bookViews>
@@ -20,93 +20,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>单号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石机械  BOMCO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HEAT  TREATMENT  REPORT </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
   <si>
     <t>宝石机械质量检测部</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>热  处  理  报  告</t>
   </si>
   <si>
     <t>BOMCO  QUALITY  INSPECTION  DEPARTMENT</t>
-  </si>
-  <si>
-    <r>
-      <t>热</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>处</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>告</t>
-    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">材 料
+Material
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">图 号
+Drawing №
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产单位
+Producing Unit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -115,7 +72,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -124,25 +80,22 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>名</t>
+      <t>名
+Product</t>
     </r>
-  </si>
-  <si>
-    <t>Product</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>材</t>
+      <t>数</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -151,25 +104,27 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>料</t>
+      <t>量
+Quantity</t>
     </r>
-  </si>
-  <si>
-    <t>Material</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>热处理方式
+Heat treatment</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>数</t>
+      <t>炉</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -178,25 +133,44 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>量</t>
+      <t>号
+Heat №</t>
     </r>
-  </si>
-  <si>
-    <t>Quantity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号
+Part №</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>热处理跟单号
+Treatment with
+a single number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">硬度
+Hardness
+HBW  HRC   HV  </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>理化检测试验报告
+Rrport physical and chemical analysis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>图</t>
+      <t>结</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -205,381 +179,36 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>号</t>
+      <t>论
+Result</t>
     </r>
-  </si>
-  <si>
-    <t>Drawing №</t>
-  </si>
-  <si>
-    <t>Producing Unit</t>
-  </si>
-  <si>
-    <r>
-      <t>退火anneal</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正火normalizing</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 调质thermal refining</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>淬、回火tempering</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表淬surface hardening</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  氮化nitridation</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  渗碳carburization </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  其它 others：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>炉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-  </si>
-  <si>
-    <t>Heat №</t>
-  </si>
-  <si>
-    <t>产品编号</t>
-  </si>
-  <si>
-    <t>Part  №</t>
-  </si>
-  <si>
-    <t>热处理跟单号</t>
-  </si>
-  <si>
-    <t>Treatment with</t>
-  </si>
-  <si>
-    <t>a single number</t>
-  </si>
-  <si>
-    <t>硬度</t>
-  </si>
-  <si>
-    <t>Hardness</t>
-  </si>
-  <si>
-    <r>
-      <t>HBW</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HRC</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> HV</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <t>理化检测试验报告</t>
-  </si>
-  <si>
-    <t>Rrport physical and chemical analysis</t>
-  </si>
-  <si>
-    <r>
-      <t>结</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>论</t>
-    </r>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>备 注</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>检验员</t>
-  </si>
-  <si>
-    <t>Inspector</t>
-  </si>
-  <si>
-    <t>审核人</t>
-  </si>
-  <si>
-    <t>Rechecked by</t>
-  </si>
-  <si>
-    <t>调用签名服务器</t>
-  </si>
-  <si>
-    <t>调用签名服务器</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>单号</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石机械  BOMCO</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>热处理方式</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heat treatment</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产单位</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">HEAT  TREATMENT  REPORT </t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>备 注
+Remarks</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验员
+Inspector</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人
+Rechecked by</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,85 +362,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF0000FF"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
@@ -824,6 +374,40 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1006,7 +590,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1122,55 +706,132 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1302,95 +963,107 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1455,16 +1128,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>577774</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>311150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>163156</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1480,7 +1153,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1494,8 +1167,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2920924" y="95250"/>
-          <a:ext cx="1092276" cy="412750"/>
+          <a:off x="1187450" y="311150"/>
+          <a:ext cx="552450" cy="702906"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1912,482 +1585,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:J14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.58203125" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.9140625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.08203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.9140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="1" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+    </row>
+    <row r="2" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="9" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="3" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="23.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" ht="23.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="23"/>
-    </row>
-    <row r="25" spans="1:10" ht="29.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="29.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H11:J12"/>
-    <mergeCell ref="H7:J8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="B23:F25"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
+  <mergeCells count="44">
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E10:I11"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F18:H18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B21:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E12:I13"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C13:J14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H9:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>